--- a/resultaten/Random solutions/RH random results.xlsx
+++ b/resultaten/Random solutions/RH random results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ert\Desktop\rushhour results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ert\Desktop\rushhour results\Random solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5A191-2149-411A-B045-F95B9B1D572B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B8B0C-5604-455A-8C47-EEA1A1CDD689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AC03ED66-7232-47F5-B1FF-ACCDD55FBD29}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Runtime</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>number of solutions</t>
   </si>
@@ -42,22 +39,22 @@
     <t>total number of moves</t>
   </si>
   <si>
-    <t>28534s</t>
-  </si>
-  <si>
-    <t>2184s</t>
-  </si>
-  <si>
-    <t>34582s</t>
-  </si>
-  <si>
-    <t>11418s</t>
-  </si>
-  <si>
-    <t>80467s</t>
-  </si>
-  <si>
-    <t>51739s</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Runtime (in s)</t>
   </si>
 </sst>
 </file>
@@ -95,13 +92,26 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -112,6 +122,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36ED959-97EB-48CA-91E6-9C760DC7E8BB}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{EF34DC97-E31C-4EEF-B57D-5F5BA17D72BC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{18E1EC84-6DD6-4FD0-A459-16704E893D1A}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{127DB682-5195-4FF3-9A91-AD4D5E87BD85}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7492D7A2-DE3F-4070-85CD-AE95B084C1FF}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{497255FD-F21F-4E32-AF3A-511DF63B3C9C}" name="Column4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6A7BD9C4-94F4-486C-86FF-9601D10D726F}" name="Column5" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,150 +435,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01251853-4A03-44EE-A0E3-32FB0B64E581}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>431</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1486547792</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28534</v>
+      </c>
+      <c r="C3" s="2">
         <v>100000</v>
       </c>
       <c r="D3" s="1">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1">
-        <v>97256779</v>
+        <v>431</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1486547792</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2184</v>
+      </c>
+      <c r="C4" s="2">
         <v>100000</v>
       </c>
       <c r="D4" s="1">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1">
-        <v>569723918</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>97256779</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11418</v>
+      </c>
+      <c r="C5" s="2">
         <v>100000</v>
       </c>
       <c r="D5" s="1">
-        <v>271</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1088149349</v>
+        <v>58</v>
+      </c>
+      <c r="E5" s="2">
+        <v>569723918</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34582</v>
+      </c>
+      <c r="C6" s="2">
         <v>100000</v>
       </c>
       <c r="D6" s="1">
-        <v>203</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2138995120</v>
+        <v>271</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1088149349</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80467</v>
+      </c>
+      <c r="C7" s="2">
         <v>100000</v>
       </c>
       <c r="D7" s="1">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1297946928</v>
+        <v>203</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2138995120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51739</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1297946928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/resultaten/Random solutions/RH random results.xlsx
+++ b/resultaten/Random solutions/RH random results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ert\Desktop\rushhour results\Random solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894B8B0C-5604-455A-8C47-EEA1A1CDD689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D675802-22B3-4EB6-8D34-8DB8B5DD3AF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AC03ED66-7232-47F5-B1FF-ACCDD55FBD29}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +591,18 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2">
+        <v>10852.325999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>659</v>
+      </c>
+      <c r="E9" s="2">
+        <v>178790202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
